--- a/data/data_h.xlsx
+++ b/data/data_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5012a76d39cc81c0/WIZPAD/课程/毕业论文/data_nmjy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\A_Insider_trading\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_2D4D4B1F46413C3E68192415495DCE3A8746C759" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAFDDEAD-C0A4-42A8-8AC5-B85404FC7AC2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C1B135-C308-4D15-84FB-3E427331615B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="2415" windowWidth="21600" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="2895" windowWidth="21600" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2105,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
